--- a/test/a.xlsx
+++ b/test/a.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\xl-conflict-solver\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\xl-conflict-solver\xl-conflict-solver\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35B6E2B-D997-401E-B4CB-40647FB382D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="s1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -343,11 +342,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -366,17 +365,6 @@
         <v>555</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>111</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/a.xlsx
+++ b/test/a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\xl-conflict-solver\xl-conflict-solver\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\xl-conflict-solver\xl-conflict-solver2\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -346,7 +346,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -362,7 +362,7 @@
         <v>333</v>
       </c>
       <c r="D1">
-        <v>555</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>

--- a/test/a.xlsx
+++ b/test/a.xlsx
@@ -21,6 +21,15 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>qwqwqwqw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,7 +355,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -361,8 +370,8 @@
       <c r="C1">
         <v>333</v>
       </c>
-      <c r="D1">
-        <v>555</v>
+      <c r="D1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/test/a.xlsx
+++ b/test/a.xlsx
@@ -24,12 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>qwqwqwqw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -370,8 +365,8 @@
       <c r="C1">
         <v>333</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
+      <c r="D1">
+        <v>5555</v>
       </c>
     </row>
   </sheetData>

--- a/test/a.xlsx
+++ b/test/a.xlsx
@@ -21,6 +21,15 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>qqqqqq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,7 +355,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -361,8 +370,8 @@
       <c r="C1">
         <v>333</v>
       </c>
-      <c r="D1">
-        <v>666</v>
+      <c r="D1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/test/a.xlsx
+++ b/test/a.xlsx
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,7 +346,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -366,7 +362,7 @@
         <v>333</v>
       </c>
       <c r="D1">
-        <v>5555</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/test/a.xlsx
+++ b/test/a.xlsx
@@ -356,7 +356,7 @@
         <v>111</v>
       </c>
       <c r="B1">
-        <v>222</v>
+        <v>22222222</v>
       </c>
       <c r="C1">
         <v>333</v>

--- a/test/a.xlsx
+++ b/test/a.xlsx
@@ -356,7 +356,7 @@
         <v>111</v>
       </c>
       <c r="B1">
-        <v>22222222</v>
+        <v>11111111</v>
       </c>
       <c r="C1">
         <v>333</v>

--- a/test/a.xlsx
+++ b/test/a.xlsx
@@ -346,7 +346,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -356,7 +356,7 @@
         <v>111</v>
       </c>
       <c r="B1">
-        <v>11111111</v>
+        <v>8888888</v>
       </c>
       <c r="C1">
         <v>333</v>

--- a/test/a.xlsx
+++ b/test/a.xlsx
@@ -356,7 +356,7 @@
         <v>111</v>
       </c>
       <c r="B1">
-        <v>8888888</v>
+        <v>22222222</v>
       </c>
       <c r="C1">
         <v>333</v>

--- a/test/a.xlsx
+++ b/test/a.xlsx
@@ -2,31 +2,79 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\xl-conflict-solver\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35B6E2B-D997-401E-B4CB-40647FB382D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA18F8E-3826-4468-A318-DBA5F62A0340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="s1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">30  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gugu</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -36,6 +84,30 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -62,8 +134,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -344,7 +417,8 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -352,7 +426,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>111</v>
       </c>
@@ -362,19 +436,22 @@
       <c r="C1">
         <v>333</v>
       </c>
-      <c r="D1">
-        <v>555</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>111</v>
       </c>
       <c r="B2">
         <v>20</v>
       </c>
-      <c r="C2">
-        <v>30</v>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <f>SUM(C1:C2)</f>
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/test/a.xlsx
+++ b/test/a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\xl-conflict-solver\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224E31E4-7B27-429A-B263-0C21632CC2C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452B8659-7E5F-47D9-BB1D-08C08077D4C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="13860" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="13860" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="s1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <r>
       <rPr>
@@ -68,6 +68,9 @@
       <t>gugu</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fsdfsdfsd</t>
   </si>
 </sst>
 </file>
@@ -430,8 +433,8 @@
       <c r="A1">
         <v>111</v>
       </c>
-      <c r="B1">
-        <v>22222222</v>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
       <c r="C1">
         <v>333</v>

--- a/test/a.xlsx
+++ b/test/a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\xl-conflict-solver\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452B8659-7E5F-47D9-BB1D-08C08077D4C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920FD86E-7098-4C46-8DAF-D314AE615266}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="13860" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="13860" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="s1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <r>
       <rPr>
@@ -68,9 +68,6 @@
       <t>gugu</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fsdfsdfsd</t>
   </si>
 </sst>
 </file>
@@ -433,8 +430,8 @@
       <c r="A1">
         <v>111</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1">
+        <v>33333333</v>
       </c>
       <c r="C1">
         <v>333</v>

--- a/test/a.xlsx
+++ b/test/a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\xl-conflict-solver\xl-conflict-solver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\xl-conflict-solver\xl-conflict-solver\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,44 +32,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;
-33333333.0
-=======
-222.0
-&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;
-=======
-qqqqqq
-&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;
-111.0
-=======
-&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;
-20.0
-=======
-&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;
-30   gugu
-=======
-&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+    <t>qqqq</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;
-333.0
-=======
-&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -412,40 +378,32 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>111</v>
+        <v>11111</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1">
-        <v>333</v>
+        <v>22222</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
+      <c r="D1" s="1">
+        <v>3333</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="114" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="114" x14ac:dyDescent="0.2">
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/a.xlsx
+++ b/test/a.xlsx
@@ -34,7 +34,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>qqqq</t>
+    <t>aaaaaaaa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/test/a.xlsx
+++ b/test/a.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/test/a.xlsx
+++ b/test/a.xlsx
@@ -32,12 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>aaaaaaaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,23 +373,24 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>11111</v>
+        <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+      <c r="B1" s="1">
+        <v>2</v>
       </c>
       <c r="C1">
-        <v>22222</v>
+        <f>SUM(A1:B1)</f>
+        <v>3</v>
       </c>
       <c r="D1" s="1">
-        <v>3333</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">

--- a/test/a.xlsx
+++ b/test/a.xlsx
@@ -29,10 +29,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,11 +379,11 @@
         <v>1</v>
       </c>
       <c r="B1" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C1">
         <f>SUM(A1:B1)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1">
         <v>4</v>

--- a/test/a.xlsx
+++ b/test/a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\xl-conflict-solver\xl-conflict-solver\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\xl-conflict-solver2\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -369,7 +369,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -379,14 +379,14 @@
         <v>1</v>
       </c>
       <c r="B1" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1">
         <f>SUM(A1:B1)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">

--- a/test/a.xlsx
+++ b/test/a.xlsx
@@ -369,7 +369,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -379,11 +379,11 @@
         <v>1</v>
       </c>
       <c r="B1" s="1">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="C1">
         <f>SUM(A1:B1)</f>
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1">
         <v>4</v>

--- a/test/a.xlsx
+++ b/test/a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\xl-conflict-solver\xl-conflict-solver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\xl-conflict-solver\xl-conflict-solver\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,14 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;
-100.0
-=======
-5.0
-&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;
 101.0
@@ -413,14 +406,14 @@
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="3">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">

--- a/test/a.xlsx
+++ b/test/a.xlsx
@@ -2,57 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\xl-conflict-solver\xl-conflict-solver\test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="13860" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="s1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;
-101.0
-=======
-6.0
-&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;
-4.0
-=======
-8.0
-&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,27 +35,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,17 +56,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -131,7 +76,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -176,7 +121,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -211,7 +156,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -393,40 +338,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" s="3">
-        <v>6</v>
+      <c r="B1">
+        <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
+      <c r="C1">
+        <f>SUM(A1:B1)</f>
+        <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
+      <c r="D1">
+        <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test/a.xlsx
+++ b/test/a.xlsx
@@ -351,11 +351,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C1">
         <f>SUM(A1:B1)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D1">
         <v>4</v>

--- a/test/a.xlsx
+++ b/test/a.xlsx
@@ -341,7 +341,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -351,11 +351,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1">
-        <f>SUM(A1:B1)</f>
-        <v>7</v>
+        <f>SUM(A1:B1)+1</f>
+        <v>10</v>
       </c>
       <c r="D1">
         <v>4</v>

--- a/test/a.xlsx
+++ b/test/a.xlsx
@@ -341,7 +341,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -351,11 +351,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1">
         <f>SUM(A1:B1)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D1">
         <v>4</v>

--- a/test/a.xlsx
+++ b/test/a.xlsx
@@ -16,10 +16,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -358,11 +354,11 @@
         <v>1</v>
       </c>
       <c r="B1" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1">
         <f>SUM(A1:B1)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1">
         <v>4</v>

--- a/test/a.xlsx
+++ b/test/a.xlsx
@@ -344,7 +344,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -361,7 +361,7 @@
         <v>7</v>
       </c>
       <c r="D1">
-        <v>4</v>
+        <v>5555</v>
       </c>
     </row>
   </sheetData>

--- a/test/a.xlsx
+++ b/test/a.xlsx
@@ -344,7 +344,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -361,7 +361,7 @@
         <v>7</v>
       </c>
       <c r="D1">
-        <v>5555</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
